--- a/Timesheet-evaluation.xlsx
+++ b/Timesheet-evaluation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="82">
   <si>
     <t xml:space="preserve">ETU001844</t>
   </si>
@@ -51,6 +51,210 @@
   </si>
   <si>
     <t xml:space="preserve">Avancement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise en place environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup Base Postgres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup Diesel ORM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creation du Diesel-schema crate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create_reset_db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create_region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create_proprietaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create_type_bien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create_type_bien_commission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create_bien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create_loyer_par_mois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create_v_bien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create_client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create_location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create_payement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create_v_location_payement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create_v_location_payement_reste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create_v _location_payement_commission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reset db function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model Proprietaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model TypeBien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model TypeBienCommission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model VtypeBien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model Client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model Payement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model VlocationPayementReste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model VlocationCommission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proto Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service Auth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rpc login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service Comptes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rpc chiffre_affaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rpc gains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proto Proprietaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service Auth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rpc signup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service Biens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rpc listBien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rpc getBien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proto Client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service Payement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rpc loyers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rpc loyers_paye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creation du protobuf-types crate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codegen typescript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proto integration Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise en place token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proto integration Proprietaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proto integration Client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontend Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page acceuill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiffre d’affaire componnent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gains par mois componnent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontend Proprietaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inscription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listes des biens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiffre d’affaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontent Client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page loyer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loyer filter componnent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integration Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integration Proprietaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integration Client</t>
   </si>
   <si>
     <t xml:space="preserve">Repo git: https://github.com/tonymushah/evaluation-juillet-2024</t>
@@ -69,9 +273,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00\ %"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -167,12 +372,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -180,7 +381,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -189,23 +390,27 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -213,10 +418,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -299,39 +508,39 @@
   </sheetPr>
   <dimension ref="A1:H1003"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A111" activeCellId="0" sqref="A111"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B69" activeCellId="0" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="23.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="13.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="9" style="1" width="10.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="10.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="13.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="9" style="2" width="10.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -354,1056 +563,1307 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="9"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="27.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="9"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="9"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="9"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="9"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="9"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="0" t="s">
+        <v>19</v>
+      </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="9"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="28.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="9"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="27.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="9"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="9"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="9"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="0" t="s">
+        <v>23</v>
+      </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="9"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="9"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="9"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" customFormat="false" ht="27.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" customFormat="false" ht="27.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="9"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="9"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="9"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="9"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
+      <c r="A25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="9"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
+      <c r="A26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="9"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
+      <c r="A27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="9"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
+      <c r="A28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="9"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
+      <c r="A29" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="9"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
+      <c r="A30" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="9"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
+      <c r="A31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="9"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="28.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
+      <c r="A32" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
-      <c r="H32" s="9"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8"/>
+      <c r="A33" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="9"/>
+      <c r="H33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="27.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="9"/>
+      <c r="H34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="9"/>
+      <c r="H35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="0" t="s">
+        <v>45</v>
+      </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="9"/>
+      <c r="H36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="9"/>
+      <c r="H37" s="8"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
+      <c r="A38" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
-      <c r="H38" s="9"/>
+      <c r="H38" s="8"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
-      <c r="H39" s="9"/>
+      <c r="H39" s="8"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7"/>
-      <c r="B40" s="8"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="0" t="s">
+        <v>49</v>
+      </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
-      <c r="H40" s="9"/>
+      <c r="H40" s="8"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7"/>
-      <c r="B41" s="8"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
-      <c r="H41" s="9"/>
+      <c r="H41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7"/>
-      <c r="B42" s="8"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="9"/>
+      <c r="H42" s="8"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7"/>
-      <c r="B43" s="8"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="9"/>
+      <c r="H43" s="8"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7"/>
-      <c r="B44" s="8"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
-      <c r="H44" s="9"/>
+      <c r="H44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7"/>
-      <c r="B45" s="8"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
-      <c r="H45" s="9"/>
+      <c r="H45" s="8"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7"/>
-      <c r="B46" s="8"/>
+      <c r="A46" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
-      <c r="H46" s="9"/>
+      <c r="H46" s="8"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7"/>
-      <c r="B47" s="8"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
-      <c r="H47" s="9"/>
+      <c r="H47" s="8"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7"/>
-      <c r="B48" s="8"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
-      <c r="H48" s="9"/>
+      <c r="H48" s="8"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7"/>
-      <c r="B49" s="8"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
-      <c r="H49" s="9"/>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7"/>
-      <c r="B50" s="8"/>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
-      <c r="H50" s="9"/>
+      <c r="H50" s="8"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7"/>
-      <c r="B51" s="8"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
-      <c r="H51" s="9"/>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7"/>
-      <c r="B52" s="8"/>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
-      <c r="H52" s="9"/>
+      <c r="H52" s="8"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7"/>
-      <c r="B53" s="8"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="0" t="s">
+        <v>58</v>
+      </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
-      <c r="H53" s="9"/>
+      <c r="H53" s="8"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7"/>
-      <c r="B54" s="8"/>
+      <c r="A54" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>60</v>
+      </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="9"/>
+      <c r="H54" s="8"/>
     </row>
     <row r="55" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7"/>
-      <c r="B55" s="8"/>
+      <c r="A55" s="0"/>
+      <c r="B55" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
-      <c r="H55" s="9"/>
+      <c r="H55" s="8"/>
     </row>
     <row r="56" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7"/>
-      <c r="B56" s="8"/>
+      <c r="A56" s="0"/>
+      <c r="B56" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
-      <c r="H56" s="9"/>
-    </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7"/>
-      <c r="B57" s="8"/>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0"/>
+      <c r="B57" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
-      <c r="H57" s="9"/>
+      <c r="H57" s="8"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7"/>
-      <c r="B58" s="8"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="0" t="s">
+        <v>45</v>
+      </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
-      <c r="H58" s="9"/>
+      <c r="H58" s="8"/>
     </row>
     <row r="59" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7"/>
-      <c r="B59" s="8"/>
+      <c r="A59" s="6"/>
+      <c r="B59" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
-      <c r="H59" s="9"/>
+      <c r="H59" s="8"/>
     </row>
     <row r="60" customFormat="false" ht="28.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7"/>
-      <c r="B60" s="8"/>
+      <c r="A60" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>60</v>
+      </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
-      <c r="H60" s="9"/>
+      <c r="H60" s="8"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7"/>
-      <c r="B61" s="8"/>
+      <c r="A61" s="0"/>
+      <c r="B61" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
-      <c r="H61" s="9"/>
+      <c r="H61" s="8"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7"/>
-      <c r="B62" s="8"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
-      <c r="H62" s="9"/>
+      <c r="H62" s="8"/>
     </row>
     <row r="63" customFormat="false" ht="30.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7"/>
-      <c r="B63" s="8"/>
+      <c r="A63" s="6"/>
+      <c r="B63" s="0" t="s">
+        <v>49</v>
+      </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="9"/>
+      <c r="H63" s="8"/>
     </row>
     <row r="64" customFormat="false" ht="31.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7"/>
-      <c r="B64" s="8"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="G64" s="7"/>
-      <c r="H64" s="9"/>
+      <c r="H64" s="8"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7"/>
-      <c r="B65" s="8"/>
+      <c r="A65" s="6"/>
+      <c r="B65" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
-      <c r="H65" s="9"/>
+      <c r="H65" s="8"/>
     </row>
     <row r="66" customFormat="false" ht="26.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7"/>
-      <c r="B66" s="8"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
-      <c r="H66" s="9"/>
+      <c r="H66" s="8"/>
     </row>
     <row r="67" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7"/>
-      <c r="B67" s="8"/>
+      <c r="A67" s="6"/>
+      <c r="B67" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
-      <c r="H67" s="9"/>
+      <c r="H67" s="8"/>
     </row>
     <row r="68" customFormat="false" ht="28.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7"/>
-      <c r="B68" s="8"/>
+      <c r="A68" s="9"/>
+      <c r="B68" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
-      <c r="H68" s="9"/>
+      <c r="H68" s="8"/>
     </row>
     <row r="69" customFormat="false" ht="40.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="7"/>
-      <c r="B69" s="8"/>
+      <c r="A69" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>60</v>
+      </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
-      <c r="H69" s="9"/>
+      <c r="H69" s="8"/>
     </row>
     <row r="70" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="7"/>
-      <c r="B70" s="8"/>
+      <c r="A70" s="0"/>
+      <c r="B70" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
-      <c r="H70" s="9"/>
+      <c r="H70" s="8"/>
     </row>
     <row r="71" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="7"/>
-      <c r="B71" s="8"/>
+      <c r="A71" s="6"/>
+      <c r="B71" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
-      <c r="H71" s="9"/>
+      <c r="H71" s="8"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7"/>
-      <c r="B72" s="8"/>
+      <c r="A72" s="6"/>
+      <c r="B72" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
-      <c r="H72" s="9"/>
+      <c r="H72" s="8"/>
     </row>
     <row r="73" customFormat="false" ht="40.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="7"/>
-      <c r="B73" s="8"/>
+      <c r="A73" s="6"/>
+      <c r="B73" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
-      <c r="H73" s="9"/>
+      <c r="H73" s="8"/>
     </row>
     <row r="74" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="7"/>
-      <c r="B74" s="8"/>
+      <c r="A74" s="6"/>
+      <c r="B74" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
-      <c r="H74" s="9"/>
+      <c r="H74" s="8"/>
     </row>
     <row r="75" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="7"/>
-      <c r="B75" s="8"/>
+      <c r="A75" s="6"/>
+      <c r="B75" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
-      <c r="H75" s="9"/>
+      <c r="H75" s="8"/>
     </row>
     <row r="76" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
+      <c r="A76" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
-      <c r="H76" s="9"/>
+      <c r="H76" s="8"/>
     </row>
     <row r="77" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="7"/>
-      <c r="B77" s="8"/>
+      <c r="A77" s="6"/>
+      <c r="B77" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
-      <c r="H77" s="9"/>
+      <c r="H77" s="8"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="7"/>
-      <c r="B78" s="8"/>
+      <c r="A78" s="6"/>
+      <c r="B78" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
-      <c r="H78" s="9"/>
+      <c r="H78" s="8"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="7"/>
-      <c r="B79" s="8"/>
+      <c r="A79" s="6"/>
+      <c r="B79" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
-      <c r="H79" s="9"/>
+      <c r="H79" s="8"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
+      <c r="A80" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
-      <c r="H80" s="9"/>
+      <c r="H80" s="8"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="7"/>
-      <c r="B81" s="8"/>
+      <c r="A81" s="6"/>
+      <c r="B81" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
-      <c r="H81" s="9"/>
+      <c r="H81" s="8"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="7"/>
-      <c r="B82" s="8"/>
+      <c r="A82" s="6"/>
+      <c r="B82" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
-      <c r="H82" s="9"/>
+      <c r="H82" s="8"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="7"/>
-      <c r="B83" s="8"/>
+      <c r="A83" s="6"/>
+      <c r="B83" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
-      <c r="H83" s="9"/>
+      <c r="H83" s="8"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="7"/>
-      <c r="B84" s="8"/>
+      <c r="A84" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
-      <c r="H84" s="9"/>
+      <c r="H84" s="8"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="7"/>
-      <c r="B85" s="8"/>
+      <c r="A85" s="6"/>
+      <c r="B85" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
-      <c r="H85" s="9"/>
+      <c r="H85" s="8"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
+      <c r="A86" s="6"/>
+      <c r="B86" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
-      <c r="H86" s="9"/>
+      <c r="H86" s="8"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="7"/>
-      <c r="B87" s="8"/>
+      <c r="A87" s="6"/>
+      <c r="B87" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
-      <c r="H87" s="9"/>
+      <c r="H87" s="8"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="7"/>
-      <c r="B88" s="8"/>
+      <c r="A88" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
-      <c r="H88" s="9"/>
+      <c r="H88" s="8"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
+      <c r="A89" s="6"/>
+      <c r="B89" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
-      <c r="H89" s="9"/>
+      <c r="H89" s="8"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="7"/>
-      <c r="B90" s="8"/>
+      <c r="A90" s="6"/>
+      <c r="B90" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
-      <c r="H90" s="9"/>
+      <c r="H90" s="8"/>
     </row>
     <row r="91" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="7"/>
-      <c r="B91" s="8"/>
+      <c r="A91" s="6"/>
+      <c r="B91" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
-      <c r="H91" s="9"/>
+      <c r="H91" s="8"/>
     </row>
     <row r="92" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="7"/>
-      <c r="B92" s="8"/>
+      <c r="A92" s="6"/>
+      <c r="B92" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
-      <c r="H92" s="9"/>
+      <c r="H92" s="8"/>
     </row>
     <row r="93" customFormat="false" ht="27.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="7"/>
-      <c r="B93" s="8"/>
+      <c r="A93" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
-      <c r="H93" s="9"/>
+      <c r="H93" s="8"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="7"/>
-      <c r="B94" s="8"/>
+      <c r="A94" s="6"/>
+      <c r="B94" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
-      <c r="H94" s="9"/>
+      <c r="H94" s="8"/>
     </row>
     <row r="95" customFormat="false" ht="30.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
+      <c r="A95" s="6"/>
+      <c r="B95" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
-      <c r="H95" s="9"/>
+      <c r="H95" s="8"/>
     </row>
     <row r="96" customFormat="false" ht="26.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="7"/>
-      <c r="B96" s="8"/>
+      <c r="A96" s="6"/>
+      <c r="B96" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
-      <c r="H96" s="9"/>
+      <c r="H96" s="8"/>
     </row>
     <row r="97" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="7"/>
-      <c r="B97" s="8"/>
+      <c r="A97" s="6"/>
+      <c r="B97" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
-      <c r="H97" s="9"/>
+      <c r="H97" s="8"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="7"/>
-      <c r="B98" s="8"/>
+      <c r="A98" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
-      <c r="H98" s="9"/>
+      <c r="H98" s="8"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="7"/>
-      <c r="B99" s="7"/>
+      <c r="A99" s="6"/>
+      <c r="B99" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
-      <c r="H99" s="9"/>
+      <c r="H99" s="8"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="7"/>
-      <c r="B100" s="8"/>
+      <c r="A100" s="6"/>
+      <c r="B100" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
-      <c r="H100" s="9"/>
+      <c r="H100" s="8"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="7"/>
-      <c r="B101" s="7"/>
+      <c r="A101" s="6"/>
+      <c r="B101" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
-      <c r="H101" s="9"/>
+      <c r="H101" s="8"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="7"/>
-      <c r="B102" s="8"/>
+      <c r="A102" s="6"/>
+      <c r="B102" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
-      <c r="H102" s="9"/>
+      <c r="H102" s="8"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="7"/>
-      <c r="B103" s="8"/>
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
-      <c r="H103" s="9"/>
+      <c r="H103" s="8"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="7"/>
-      <c r="B104" s="8"/>
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
-      <c r="H104" s="9"/>
+      <c r="H104" s="8"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="7"/>
-      <c r="B105" s="8"/>
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
-      <c r="H105" s="9"/>
+      <c r="H105" s="8"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="7"/>
-      <c r="B106" s="8"/>
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
-      <c r="H106" s="9"/>
+      <c r="H106" s="8"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="7"/>
-      <c r="B107" s="8"/>
+      <c r="A107" s="6"/>
+      <c r="B107" s="6"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
-      <c r="H107" s="9"/>
+      <c r="H107" s="8"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="7"/>
-      <c r="B108" s="8"/>
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
-      <c r="H108" s="9"/>
+      <c r="H108" s="8"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="7"/>
-      <c r="B109" s="8"/>
+      <c r="A109" s="6"/>
+      <c r="B109" s="6"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
       <c r="E109" s="7" t="n">
@@ -1425,24 +1885,24 @@
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B110" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="B110" s="2"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B111" s="1"/>
+      <c r="B111" s="2"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B112" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="B112" s="2"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B113" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="B113" s="13" t="n">
         <f aca="false">Feuil1!E109</f>
         <v>0</v>
       </c>
@@ -1451,7 +1911,7 @@
       <c r="A114" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="13" t="n">
         <f aca="false">Feuil1!F109</f>
         <v>0</v>
       </c>
@@ -1460,14 +1920,14 @@
       <c r="A115" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="13" t="n">
         <f aca="false">Feuil1!G109</f>
         <v>0</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B116" s="3" t="s">
-        <v>13</v>
+      <c r="B116" s="13" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1476,7 +1936,7 @@
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B122" s="1"/>
+      <c r="B122" s="2"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Timesheet-evaluation.xlsx
+++ b/Timesheet-evaluation.xlsx
@@ -372,7 +372,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -407,10 +407,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -508,7 +504,7 @@
   </sheetPr>
   <dimension ref="A1:H1003"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B69" activeCellId="0" sqref="B69"/>
     </sheetView>
   </sheetViews>
@@ -640,7 +636,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6"/>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="7"/>
@@ -652,7 +648,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="7"/>
@@ -712,7 +708,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6"/>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="7"/>
@@ -940,7 +936,7 @@
       <c r="A33" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C33" s="7"/>
@@ -951,8 +947,7 @@
       <c r="H33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="27.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9"/>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C34" s="7"/>
@@ -963,7 +958,6 @@
       <c r="H34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9"/>
       <c r="B35" s="6" t="s">
         <v>44</v>
       </c>
@@ -975,8 +969,7 @@
       <c r="H35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9"/>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C36" s="7"/>
@@ -1026,7 +1019,7 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="6"/>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C40" s="7"/>
@@ -1085,7 +1078,6 @@
       <c r="H44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9"/>
       <c r="B45" s="6" t="s">
         <v>45</v>
       </c>
@@ -1185,8 +1177,7 @@
       <c r="H52" s="8"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9"/>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C53" s="7"/>
@@ -1200,7 +1191,7 @@
       <c r="A54" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C54" s="7"/>
@@ -1211,8 +1202,8 @@
       <c r="H54" s="8"/>
     </row>
     <row r="55" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0"/>
-      <c r="B55" s="0" t="s">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C55" s="7"/>
@@ -1223,8 +1214,8 @@
       <c r="H55" s="8"/>
     </row>
     <row r="56" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0"/>
-      <c r="B56" s="0" t="s">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C56" s="7"/>
@@ -1235,7 +1226,7 @@
       <c r="H56" s="8"/>
     </row>
     <row r="57" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0"/>
+      <c r="A57" s="2"/>
       <c r="B57" s="6" t="s">
         <v>44</v>
       </c>
@@ -1247,8 +1238,7 @@
       <c r="H57" s="8"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9"/>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C58" s="7"/>
@@ -1274,7 +1264,7 @@
       <c r="A60" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C60" s="7"/>
@@ -1285,7 +1275,7 @@
       <c r="H60" s="8"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0"/>
+      <c r="A61" s="2"/>
       <c r="B61" s="6" t="s">
         <v>48</v>
       </c>
@@ -1310,7 +1300,7 @@
     </row>
     <row r="63" customFormat="false" ht="30.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="6"/>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C63" s="7"/>
@@ -1368,7 +1358,6 @@
       <c r="H67" s="8"/>
     </row>
     <row r="68" customFormat="false" ht="28.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="9"/>
       <c r="B68" s="6" t="s">
         <v>45</v>
       </c>
@@ -1383,7 +1372,7 @@
       <c r="A69" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C69" s="7"/>
@@ -1394,7 +1383,7 @@
       <c r="H69" s="8"/>
     </row>
     <row r="70" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0"/>
+      <c r="A70" s="2"/>
       <c r="B70" s="6" t="s">
         <v>48</v>
       </c>
@@ -1878,13 +1867,13 @@
         <f aca="false">SUM(G4:G108)</f>
         <v>0</v>
       </c>
-      <c r="H109" s="10" t="e">
+      <c r="H109" s="9" t="e">
         <f aca="false">(F109/(F109+G109))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="11" t="s">
+      <c r="A110" s="10" t="s">
         <v>78</v>
       </c>
       <c r="B110" s="2"/>
@@ -1899,34 +1888,34 @@
       <c r="B112" s="2"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="12" t="s">
+      <c r="A113" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B113" s="13" t="n">
+      <c r="B113" s="12" t="n">
         <f aca="false">Feuil1!E109</f>
         <v>0</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="12" t="s">
+      <c r="A114" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B114" s="13" t="n">
+      <c r="B114" s="12" t="n">
         <f aca="false">Feuil1!F109</f>
         <v>0</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="12" t="s">
+      <c r="A115" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="13" t="n">
+      <c r="B115" s="12" t="n">
         <f aca="false">Feuil1!G109</f>
         <v>0</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B116" s="13" t="s">
+      <c r="B116" s="12" t="s">
         <v>81</v>
       </c>
     </row>

--- a/Timesheet-evaluation.xlsx
+++ b/Timesheet-evaluation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="90">
   <si>
     <t xml:space="preserve">ETU001844</t>
   </si>
@@ -83,6 +83,9 @@
     <t xml:space="preserve">create_type_bien_commission</t>
   </si>
   <si>
+    <t xml:space="preserve">create_v_type_bien_commission</t>
+  </si>
+  <si>
     <t xml:space="preserve">create_bien</t>
   </si>
   <si>
@@ -255,6 +258,27 @@
   </si>
   <si>
     <t xml:space="preserve">Integration Client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import donnees backend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bien imports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location imports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service Import</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rpc bien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rpc location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page import</t>
   </si>
   <si>
     <t xml:space="preserve">Repo git: https://github.com/tonymushah/evaluation-juillet-2024</t>
@@ -401,11 +425,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -504,8 +528,8 @@
   </sheetPr>
   <dimension ref="A1:H1003"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B69" activeCellId="0" sqref="B69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -566,11 +590,21 @@
         <v>11</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" s="8" t="n">
+        <f aca="false">E4-F4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="9" t="n">
+        <f aca="false">(F4/(F4+G4))</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
@@ -578,11 +612,21 @@
         <v>12</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <f aca="false">E5-F5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="9" t="n">
+        <f aca="false">(F5/(F5+G5))</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="27.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
@@ -590,11 +634,21 @@
         <v>13</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="8" t="n">
+        <f aca="false">E6-F6</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="9" t="n">
+        <f aca="false">(F6/(F6+G6))</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
@@ -604,11 +658,21 @@
         <v>15</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <f aca="false">E7-F7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="9" t="n">
+        <f aca="false">(F7/(F7+G7))</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6"/>
@@ -616,11 +680,21 @@
         <v>16</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="8" t="n">
+        <f aca="false">E8-F8</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="9" t="n">
+        <f aca="false">(F8/(F8+G8))</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6"/>
@@ -628,1307 +702,2332 @@
         <v>17</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="8" t="n">
+        <f aca="false">E9-F9</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="9" t="n">
+        <f aca="false">(F9/(F9+G9))</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6"/>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="8" t="n">
+        <f aca="false">E10-F10</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <f aca="false">(F10/(F10+G10))</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" s="8" t="n">
+        <f aca="false">E11-F11</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="9" t="n">
+        <f aca="false">(F11/(F11+G11))</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="28.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" s="8" t="n">
+        <f aca="false">E12-F12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="9" t="n">
+        <f aca="false">(F12/(F12+G12))</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="27.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="8" t="n">
+        <f aca="false">E13-F13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="9" t="n">
+        <f aca="false">(F13/(F13+G13))</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6"/>
-      <c r="B14" s="1" t="s">
-        <v>21</v>
+      <c r="B14" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="8" t="n">
+        <f aca="false">E14-F14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="9" t="n">
+        <f aca="false">(F14/(F14+G14))</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" s="8" t="n">
+        <f aca="false">E15-F15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="9" t="n">
+        <f aca="false">(F15/(F15+G15))</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6"/>
-      <c r="B16" s="2" t="s">
-        <v>23</v>
+      <c r="B16" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" s="8" t="n">
+        <f aca="false">E16-F16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="9" t="n">
+        <f aca="false">(F16/(F16+G16))</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" s="8" t="n">
+        <f aca="false">E17-F17</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="9" t="n">
+        <f aca="false">(F17/(F17+G17))</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <f aca="false">E18-F18</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <f aca="false">(F18/(F18+G18))</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6"/>
       <c r="B19" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <f aca="false">E19-F19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <f aca="false">(F19/(F19+G19))</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="27.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8" t="n">
+        <f aca="false">E20-F20</f>
+        <v>5</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <f aca="false">(F20/(F20+G20))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="27.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6"/>
       <c r="B21" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8" t="n">
+        <f aca="false">E21-F21</f>
+        <v>5</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <f aca="false">(F21/(F21+G21))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <f aca="false">E22-F22</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <f aca="false">(F22/(F22+G22))</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8" t="n">
+        <f aca="false">E23-F23</f>
+        <v>2</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <f aca="false">(F23/(F23+G23))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8" t="n">
+        <f aca="false">E24-F24</f>
+        <v>2</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <f aca="false">(F24/(F24+G24))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8" t="n">
+        <f aca="false">E25-F25</f>
+        <v>2</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <f aca="false">(F25/(F25+G25))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8" t="n">
+        <f aca="false">E26-F26</f>
+        <v>2</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <f aca="false">(F26/(F26+G26))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8" t="n">
+        <f aca="false">E27-F27</f>
+        <v>2</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <f aca="false">(F27/(F27+G27))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8" t="n">
+        <f aca="false">E28-F28</f>
+        <v>2</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <f aca="false">(F28/(F28+G28))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8" t="n">
+        <f aca="false">E29-F29</f>
+        <v>2</v>
+      </c>
+      <c r="H29" s="9" t="n">
+        <f aca="false">(F29/(F29+G29))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8" t="n">
+        <f aca="false">E30-F30</f>
+        <v>2</v>
+      </c>
+      <c r="H30" s="9" t="n">
+        <f aca="false">(F30/(F30+G30))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8" t="n">
+        <f aca="false">E31-F31</f>
+        <v>2</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <f aca="false">(F31/(F31+G31))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="28.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8" t="n">
+        <f aca="false">E32-F32</f>
+        <v>2</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <f aca="false">(F32/(F32+G32))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="B33" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8" t="n">
+        <f aca="false">SUM(E34)</f>
+        <v>2</v>
+      </c>
+      <c r="F33" s="8" t="n">
+        <f aca="false">SUM(F34)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <f aca="false">SUM(G34)</f>
+        <v>2</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <f aca="false">(F33/(F33+G33))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="27.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="8"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8" t="n">
+        <f aca="false">E34-F34</f>
+        <v>2</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <f aca="false">(F34/(F34+G34))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8" t="n">
+        <f aca="false">SUM(E36:E37)</f>
+        <v>2</v>
+      </c>
+      <c r="F35" s="8" t="n">
+        <f aca="false">SUM(F36:F37)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <f aca="false">SUM(G36:G37)</f>
+        <v>2</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <f aca="false">(F35/(F35+G35))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="8"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8" t="n">
+        <f aca="false">E36-F36</f>
+        <v>1</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <f aca="false">(F36/(F36+G36))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8" t="n">
+        <f aca="false">E37-F37</f>
+        <v>1</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <f aca="false">(F37/(F37+G37))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8" t="n">
+        <f aca="false">SUM(E39:E40)</f>
+        <v>2</v>
+      </c>
+      <c r="F38" s="8" t="n">
+        <f aca="false">SUM(F39:F40)</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <f aca="false">SUM(G39:G40)</f>
+        <v>2</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <f aca="false">(F38/(F38+G38))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6"/>
       <c r="B39" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8" t="n">
+        <f aca="false">E39-F39</f>
+        <v>1</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <f aca="false">(F39/(F39+G39))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="6"/>
-      <c r="B40" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="8"/>
+      <c r="B40" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8" t="n">
+        <f aca="false">E40-F40</f>
+        <v>1</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <f aca="false">(F40/(F40+G40))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="6"/>
       <c r="B41" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="8"/>
+        <v>51</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8" t="n">
+        <f aca="false">SUM(E42:E43)</f>
+        <v>2</v>
+      </c>
+      <c r="F41" s="8" t="n">
+        <f aca="false">SUM(F42:F43)</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <f aca="false">SUM(G42:G43)</f>
+        <v>2</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <f aca="false">(F41/(F41+G41))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="6"/>
       <c r="B42" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="8"/>
+        <v>52</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8" t="n">
+        <f aca="false">E42-F42</f>
+        <v>1</v>
+      </c>
+      <c r="H42" s="9" t="n">
+        <f aca="false">(F42/(F42+G42))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
       <c r="B43" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8" t="n">
+        <f aca="false">E43-F43</f>
+        <v>1</v>
+      </c>
+      <c r="H43" s="9" t="n">
+        <f aca="false">(F43/(F43+G43))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="6"/>
       <c r="B44" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8" t="n">
+        <f aca="false">SUM(E45)</f>
+        <v>1</v>
+      </c>
+      <c r="F44" s="8" t="n">
+        <f aca="false">SUM(F45)</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <f aca="false">SUM(G45)</f>
+        <v>1</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <f aca="false">(F44/(F44+G44))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6"/>
       <c r="B45" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8" t="n">
+        <f aca="false">E45-F45</f>
+        <v>1</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <f aca="false">(F45/(F45+G45))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8" t="n">
+        <f aca="false">SUM(E47:E48)</f>
+        <v>2</v>
+      </c>
+      <c r="F46" s="8" t="n">
+        <f aca="false">SUM(F47:F48)</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <f aca="false">SUM(G47:G48)</f>
+        <v>2</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <f aca="false">(F46/(F46+G46))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="6"/>
       <c r="B47" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8" t="n">
+        <f aca="false">E47-F47</f>
+        <v>1</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <f aca="false">(F47/(F47+G47))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="6"/>
       <c r="B48" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8" t="n">
+        <f aca="false">E48-F48</f>
+        <v>1</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <f aca="false">(F48/(F48+G48))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8" t="n">
+        <f aca="false">SUM(E50:E51)</f>
+        <v>2</v>
+      </c>
+      <c r="F49" s="8" t="n">
+        <f aca="false">SUM(F50:F51)</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <f aca="false">SUM(G50:G51)</f>
+        <v>2</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <f aca="false">(F49/(F49+G49))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="6"/>
       <c r="B50" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="8"/>
+        <v>56</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8" t="n">
+        <f aca="false">E50-F50</f>
+        <v>1</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <f aca="false">(F50/(F50+G50))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="6"/>
       <c r="B51" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="8"/>
+        <v>57</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8" t="n">
+        <f aca="false">E51-F51</f>
+        <v>1</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <f aca="false">(F51/(F51+G51))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="8"/>
+        <v>58</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8" t="n">
+        <f aca="false">E52-F52</f>
+        <v>5</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <f aca="false">(F52/(F52+G52))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="8"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8" t="n">
+        <f aca="false">E53-F53</f>
+        <v>5</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <f aca="false">(F53/(F53+G53))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="8"/>
+      <c r="B54" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8" t="n">
+        <f aca="false">E54-F54</f>
+        <v>10</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <f aca="false">(F54/(F54+G54))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="8"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8" t="n">
+        <f aca="false">SUM(E56)</f>
+        <v>5</v>
+      </c>
+      <c r="F55" s="8" t="n">
+        <f aca="false">SUM(F56)</f>
+        <v>0</v>
+      </c>
+      <c r="G55" s="8" t="n">
+        <f aca="false">SUM(G56)</f>
+        <v>5</v>
+      </c>
+      <c r="H55" s="9" t="n">
+        <f aca="false">(F55/(F55+G55))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="8"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8" t="n">
+        <f aca="false">E56-F56</f>
+        <v>5</v>
+      </c>
+      <c r="H56" s="9" t="n">
+        <f aca="false">(F56/(F56+G56))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2"/>
+      <c r="A57" s="8"/>
       <c r="B57" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8" t="n">
+        <f aca="false">SUM(E58:E59)</f>
+        <v>10</v>
+      </c>
+      <c r="F57" s="8" t="n">
+        <f aca="false">SUM(F58:F59)</f>
+        <v>0</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <f aca="false">SUM(G58:G59)</f>
+        <v>10</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <f aca="false">(F57/(F57+G57))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B58" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="8"/>
+      <c r="A58" s="6"/>
+      <c r="B58" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8" t="n">
+        <f aca="false">E58-F58</f>
+        <v>5</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <f aca="false">(F58/(F58+G58))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="6"/>
       <c r="B59" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8" t="n">
+        <f aca="false">E59-F59</f>
+        <v>5</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <f aca="false">(F59/(F59+G59))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="28.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8" t="n">
+        <f aca="false">E60-F60</f>
+        <v>5</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <f aca="false">(F60/(F60+G60))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2"/>
+      <c r="A61" s="8"/>
       <c r="B61" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8" t="n">
+        <f aca="false">SUM(E62:E63)</f>
+        <v>10</v>
+      </c>
+      <c r="F61" s="8" t="n">
+        <f aca="false">SUM(F62:F63)</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <f aca="false">SUM(G62:G63)</f>
+        <v>10</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <f aca="false">(F61/(F61+G61))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="6"/>
       <c r="B62" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8" t="n">
+        <f aca="false">E62-F62</f>
+        <v>5</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <f aca="false">(F62/(F62+G62))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="30.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="6"/>
-      <c r="B63" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="8"/>
+      <c r="B63" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8" t="n">
+        <f aca="false">E63-F63</f>
+        <v>5</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <f aca="false">(F63/(F63+G63))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="31.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="6"/>
       <c r="B64" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="8"/>
+        <v>51</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8" t="n">
+        <f aca="false">SUM(E65:E66)</f>
+        <v>10</v>
+      </c>
+      <c r="F64" s="8" t="n">
+        <f aca="false">SUM(F65:F66)</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <f aca="false">SUM(G65:G66)</f>
+        <v>10</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <f aca="false">(F64/(F64+G64))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="6"/>
       <c r="B65" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="8"/>
+        <v>52</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8" t="n">
+        <f aca="false">E65-F65</f>
+        <v>5</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <f aca="false">(F65/(F65+G65))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="26.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="6"/>
       <c r="B66" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8" t="n">
+        <f aca="false">E66-F66</f>
+        <v>5</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <f aca="false">(F66/(F66+G66))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="6"/>
       <c r="B67" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8" t="n">
+        <f aca="false">SUM(E68)</f>
+        <v>5</v>
+      </c>
+      <c r="F67" s="8" t="n">
+        <f aca="false">SUM(F68)</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <f aca="false">SUM(G68)</f>
+        <v>5</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <f aca="false">(F67/(F67+G67))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="28.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="6"/>
       <c r="B68" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8" t="n">
+        <f aca="false">E68-F68</f>
+        <v>5</v>
+      </c>
+      <c r="H68" s="9" t="n">
+        <f aca="false">(F68/(F68+G68))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="40.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8" t="n">
+        <f aca="false">E69-F69</f>
+        <v>5</v>
+      </c>
+      <c r="H69" s="9" t="n">
+        <f aca="false">(F69/(F69+G69))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2"/>
+      <c r="A70" s="8"/>
       <c r="B70" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8" t="n">
+        <f aca="false">SUM(E71:E72)</f>
+        <v>10</v>
+      </c>
+      <c r="F70" s="8" t="n">
+        <f aca="false">SUM(F71:F72)</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="8" t="n">
+        <f aca="false">SUM(G71:G72)</f>
+        <v>10</v>
+      </c>
+      <c r="H70" s="9" t="n">
+        <f aca="false">(F70/(F70+G70))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="6"/>
       <c r="B71" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8" t="n">
+        <f aca="false">E71-F71</f>
+        <v>5</v>
+      </c>
+      <c r="H71" s="9" t="n">
+        <f aca="false">(F71/(F71+G71))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="6"/>
       <c r="B72" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8" t="n">
+        <f aca="false">E72-F72</f>
+        <v>5</v>
+      </c>
+      <c r="H72" s="9" t="n">
+        <f aca="false">(F72/(F72+G72))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="40.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="6"/>
       <c r="B73" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8" t="n">
+        <f aca="false">SUM(E74:E75)</f>
+        <v>4</v>
+      </c>
+      <c r="F73" s="8" t="n">
+        <f aca="false">SUM(F74:F75)</f>
+        <v>0</v>
+      </c>
+      <c r="G73" s="8" t="n">
+        <f aca="false">SUM(G74:G75)</f>
+        <v>4</v>
+      </c>
+      <c r="H73" s="9" t="n">
+        <f aca="false">(F73/(F73+G73))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="6"/>
       <c r="B74" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="8"/>
+        <v>56</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8" t="n">
+        <f aca="false">E74-F74</f>
+        <v>2</v>
+      </c>
+      <c r="H74" s="9" t="n">
+        <f aca="false">(F74/(F74+G74))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="6"/>
       <c r="B75" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="8"/>
+        <v>57</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8" t="n">
+        <f aca="false">E75-F75</f>
+        <v>2</v>
+      </c>
+      <c r="H75" s="9" t="n">
+        <f aca="false">(F75/(F75+G75))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8" t="n">
+        <f aca="false">E76-F76</f>
+        <v>5</v>
+      </c>
+      <c r="H76" s="9" t="n">
+        <f aca="false">(F76/(F76+G76))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="6"/>
       <c r="B77" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="8"/>
+        <v>66</v>
+      </c>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8" t="n">
+        <f aca="false">E77-F77</f>
+        <v>5</v>
+      </c>
+      <c r="H77" s="9" t="n">
+        <f aca="false">(F77/(F77+G77))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="6"/>
       <c r="B78" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="8"/>
+        <v>67</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8" t="n">
+        <f aca="false">E78-F78</f>
+        <v>5</v>
+      </c>
+      <c r="H78" s="9" t="n">
+        <f aca="false">(F78/(F78+G78))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="6"/>
       <c r="B79" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8" t="n">
+        <f aca="false">E79-F79</f>
+        <v>5</v>
+      </c>
+      <c r="H79" s="9" t="n">
+        <f aca="false">(F79/(F79+G79))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8" t="n">
+        <f aca="false">E80-F80</f>
+        <v>5</v>
+      </c>
+      <c r="H80" s="9" t="n">
+        <f aca="false">(F80/(F80+G80))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="6"/>
-      <c r="B81" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="8"/>
+      <c r="B81" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8" t="n">
+        <f aca="false">E81-F81</f>
+        <v>5</v>
+      </c>
+      <c r="H81" s="9" t="n">
+        <f aca="false">(F81/(F81+G81))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="6"/>
       <c r="B82" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="8"/>
+        <v>71</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8" t="n">
+        <f aca="false">E82-F82</f>
+        <v>5</v>
+      </c>
+      <c r="H82" s="9" t="n">
+        <f aca="false">(F82/(F82+G82))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="6"/>
       <c r="B83" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="8"/>
+        <v>72</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8" t="n">
+        <f aca="false">E83-F83</f>
+        <v>5</v>
+      </c>
+      <c r="H83" s="9" t="n">
+        <f aca="false">(F83/(F83+G83))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8" t="n">
+        <f aca="false">E84-F84</f>
+        <v>5</v>
+      </c>
+      <c r="H84" s="9" t="n">
+        <f aca="false">(F84/(F84+G84))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="6"/>
-      <c r="B85" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="8"/>
+      <c r="B85" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8" t="n">
+        <f aca="false">E85-F85</f>
+        <v>5</v>
+      </c>
+      <c r="H85" s="9" t="n">
+        <f aca="false">(F85/(F85+G85))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="6"/>
       <c r="B86" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="8"/>
+        <v>74</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8" t="n">
+        <f aca="false">E86-F86</f>
+        <v>5</v>
+      </c>
+      <c r="H86" s="9" t="n">
+        <f aca="false">(F86/(F86+G86))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="6"/>
       <c r="B87" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="8"/>
+        <v>75</v>
+      </c>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8" t="n">
+        <f aca="false">E87-F87</f>
+        <v>5</v>
+      </c>
+      <c r="H87" s="9" t="n">
+        <f aca="false">(F87/(F87+G87))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8" t="n">
+        <f aca="false">E88-F88</f>
+        <v>5</v>
+      </c>
+      <c r="H88" s="9" t="n">
+        <f aca="false">(F88/(F88+G88))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="6"/>
       <c r="B89" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8" t="n">
+        <f aca="false">E89-F89</f>
+        <v>2</v>
+      </c>
+      <c r="H89" s="9" t="n">
+        <f aca="false">(F89/(F89+G89))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="6"/>
       <c r="B90" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="8"/>
+        <v>66</v>
+      </c>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8" t="n">
+        <f aca="false">E90-F90</f>
+        <v>2</v>
+      </c>
+      <c r="H90" s="9" t="n">
+        <f aca="false">(F90/(F90+G90))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="6"/>
       <c r="B91" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="8"/>
+        <v>67</v>
+      </c>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8" t="n">
+        <f aca="false">E91-F91</f>
+        <v>2</v>
+      </c>
+      <c r="H91" s="9" t="n">
+        <f aca="false">(F91/(F91+G91))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="6"/>
       <c r="B92" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8" t="n">
+        <f aca="false">E92-F92</f>
+        <v>2</v>
+      </c>
+      <c r="H92" s="9" t="n">
+        <f aca="false">(F92/(F92+G92))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="27.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8" t="n">
+        <f aca="false">E93-F93</f>
+        <v>2</v>
+      </c>
+      <c r="H93" s="9" t="n">
+        <f aca="false">(F93/(F93+G93))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="6"/>
       <c r="B94" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8" t="n">
+        <f aca="false">E94-F94</f>
+        <v>3</v>
+      </c>
+      <c r="H94" s="9" t="n">
+        <f aca="false">(F94/(F94+G94))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="30.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="6"/>
-      <c r="B95" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="8"/>
+      <c r="B95" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8" t="n">
+        <f aca="false">E95-F95</f>
+        <v>3</v>
+      </c>
+      <c r="H95" s="9" t="n">
+        <f aca="false">(F95/(F95+G95))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="26.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="6"/>
       <c r="B96" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="8"/>
+        <v>71</v>
+      </c>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8" t="n">
+        <f aca="false">E96-F96</f>
+        <v>3</v>
+      </c>
+      <c r="H96" s="9" t="n">
+        <f aca="false">(F96/(F96+G96))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="6"/>
       <c r="B97" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="8"/>
+        <v>72</v>
+      </c>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8" t="n">
+        <f aca="false">E97-F97</f>
+        <v>3</v>
+      </c>
+      <c r="H97" s="9" t="n">
+        <f aca="false">(F97/(F97+G97))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8" t="n">
+        <f aca="false">E98-F98</f>
+        <v>2</v>
+      </c>
+      <c r="H98" s="9" t="n">
+        <f aca="false">(F98/(F98+G98))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="6"/>
       <c r="B99" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8" t="n">
+        <f aca="false">E99-F99</f>
+        <v>2</v>
+      </c>
+      <c r="H99" s="9" t="n">
+        <f aca="false">(F99/(F99+G99))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="6"/>
-      <c r="B100" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="8"/>
+      <c r="B100" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8" t="n">
+        <f aca="false">E100-F100</f>
+        <v>2</v>
+      </c>
+      <c r="H100" s="9" t="n">
+        <f aca="false">(F100/(F100+G100))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="6"/>
       <c r="B101" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="8"/>
+        <v>74</v>
+      </c>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8" t="n">
+        <f aca="false">E101-F101</f>
+        <v>3</v>
+      </c>
+      <c r="H101" s="9" t="n">
+        <f aca="false">(F101/(F101+G101))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="6"/>
       <c r="B102" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="8"/>
-    </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="6"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="8"/>
+        <v>75</v>
+      </c>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8" t="n">
+        <f aca="false">E102-F102</f>
+        <v>3</v>
+      </c>
+      <c r="H102" s="9" t="n">
+        <f aca="false">(F102/(F102+G102))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="27.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8" t="n">
+        <f aca="false">E103-F103</f>
+        <v>10</v>
+      </c>
+      <c r="H103" s="9" t="n">
+        <f aca="false">(F103/(F103+G103))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="6"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="8"/>
+      <c r="B104" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8" t="n">
+        <f aca="false">E104-F104</f>
+        <v>10</v>
+      </c>
+      <c r="H104" s="9" t="n">
+        <f aca="false">(F104/(F104+G104))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="6"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="8"/>
+      <c r="A105" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8" t="n">
+        <f aca="false">SUM(E106:E107)</f>
+        <v>4</v>
+      </c>
+      <c r="F105" s="8" t="n">
+        <f aca="false">SUM(F106:F107)</f>
+        <v>0</v>
+      </c>
+      <c r="G105" s="8" t="n">
+        <f aca="false">SUM(G106:G107)</f>
+        <v>4</v>
+      </c>
+      <c r="H105" s="9" t="n">
+        <f aca="false">(F105/(F105+G105))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="6"/>
-      <c r="B106" s="6"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="8"/>
+      <c r="B106" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8" t="n">
+        <f aca="false">E106-F106</f>
+        <v>2</v>
+      </c>
+      <c r="H106" s="9" t="n">
+        <f aca="false">(F106/(F106+G106))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="6"/>
-      <c r="B107" s="6"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="8"/>
+      <c r="B107" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8" t="n">
+        <f aca="false">E107-F107</f>
+        <v>2</v>
+      </c>
+      <c r="H107" s="9" t="n">
+        <f aca="false">(F107/(F107+G107))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="6"/>
-      <c r="B108" s="6"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="8"/>
+      <c r="A108" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8" t="n">
+        <f aca="false">E108-F108</f>
+        <v>5</v>
+      </c>
+      <c r="H108" s="9" t="n">
+        <f aca="false">(F108/(F108+G108))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="6"/>
-      <c r="B109" s="6"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7" t="n">
-        <f aca="false">SUM(E4:E108)</f>
-        <v>0</v>
-      </c>
-      <c r="F109" s="7" t="n">
-        <f aca="false">SUM(F4:F108)</f>
-        <v>0</v>
-      </c>
-      <c r="G109" s="7" t="n">
-        <f aca="false">SUM(G4:G108)</f>
-        <v>0</v>
-      </c>
-      <c r="H109" s="9" t="e">
+      <c r="A109" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8" t="n">
+        <f aca="false">SUM(E110:E111)</f>
+        <v>10</v>
+      </c>
+      <c r="F109" s="8" t="n">
+        <f aca="false">SUM(F110:F111)</f>
+        <v>0</v>
+      </c>
+      <c r="G109" s="8" t="n">
+        <f aca="false">SUM(G110:G111)</f>
+        <v>10</v>
+      </c>
+      <c r="H109" s="9" t="n">
         <f aca="false">(F109/(F109+G109))</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B110" s="2"/>
+      <c r="A110" s="7"/>
+      <c r="B110" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8" t="n">
+        <f aca="false">E110-F110</f>
+        <v>5</v>
+      </c>
+      <c r="H110" s="9" t="n">
+        <f aca="false">(F110/(F110+G110))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B111" s="2"/>
+      <c r="A111" s="7"/>
+      <c r="B111" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F111" s="7"/>
+      <c r="G111" s="8" t="n">
+        <f aca="false">E111-F111</f>
+        <v>5</v>
+      </c>
+      <c r="H111" s="9" t="n">
+        <f aca="false">(F111/(F111+G111))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B112" s="2"/>
+      <c r="A112" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F112" s="7"/>
+      <c r="G112" s="8" t="n">
+        <f aca="false">E112-F112</f>
+        <v>2</v>
+      </c>
+      <c r="H112" s="9" t="n">
+        <f aca="false">(F112/(F112+G112))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B113" s="12" t="n">
-        <f aca="false">Feuil1!E109</f>
-        <v>0</v>
-      </c>
+      <c r="A113" s="0"/>
+      <c r="B113" s="0"/>
+      <c r="C113" s="0"/>
+      <c r="D113" s="0"/>
+      <c r="E113" s="0"/>
+      <c r="F113" s="0"/>
+      <c r="G113" s="0"/>
+      <c r="H113" s="0"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="11" t="s">
+      <c r="A114" s="0"/>
+      <c r="B114" s="0"/>
+      <c r="C114" s="0"/>
+      <c r="D114" s="0"/>
+      <c r="E114" s="0"/>
+      <c r="F114" s="0"/>
+      <c r="G114" s="0"/>
+      <c r="H114" s="0"/>
+    </row>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0"/>
+      <c r="B115" s="0"/>
+      <c r="C115" s="0"/>
+      <c r="D115" s="0"/>
+      <c r="E115" s="0"/>
+      <c r="F115" s="0"/>
+      <c r="G115" s="0"/>
+      <c r="H115" s="0"/>
+    </row>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0"/>
+      <c r="B116" s="0"/>
+      <c r="C116" s="0"/>
+      <c r="D116" s="0"/>
+      <c r="E116" s="8" t="n">
+        <f aca="false">SUM(E4:E112)</f>
+        <v>390</v>
+      </c>
+      <c r="F116" s="8" t="n">
+        <f aca="false">SUM(F4:F112)</f>
+        <v>42</v>
+      </c>
+      <c r="G116" s="8" t="n">
+        <f aca="false">SUM(G4:G112)</f>
+        <v>348</v>
+      </c>
+      <c r="H116" s="9" t="n">
+        <f aca="false">(F116/(F116+G116))</f>
+        <v>0.107692307692308</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0"/>
+      <c r="B117" s="0"/>
+      <c r="C117" s="0"/>
+      <c r="D117" s="0"/>
+      <c r="E117" s="0"/>
+    </row>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B118" s="2"/>
+    </row>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B119" s="2"/>
+    </row>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B120" s="2"/>
+    </row>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B121" s="12" t="n">
+        <f aca="false">Feuil1!E116</f>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B114" s="12" t="n">
-        <f aca="false">Feuil1!F109</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="11" t="s">
+      <c r="B122" s="12" t="n">
+        <f aca="false">Feuil1!F116</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="12" t="n">
-        <f aca="false">Feuil1!G109</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B116" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B122" s="2"/>
-    </row>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="B123" s="12" t="n">
+        <f aca="false">Feuil1!G116</f>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B124" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2826,7 +3925,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/Timesheet-evaluation.xlsx
+++ b/Timesheet-evaluation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="81">
   <si>
     <t xml:space="preserve">ETU001844</t>
   </si>
@@ -119,36 +119,6 @@
     <t xml:space="preserve">reset db function</t>
   </si>
   <si>
-    <t xml:space="preserve">model Region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model Proprietaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model TypeBien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model TypeBienCommission</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model VtypeBien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model Client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model Payement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model VlocationPayementReste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model VlocationCommission</t>
-  </si>
-  <si>
     <t xml:space="preserve">proto Admin</t>
   </si>
   <si>
@@ -267,6 +237,9 @@
   </si>
   <si>
     <t xml:space="preserve">location imports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commission imports</t>
   </si>
   <si>
     <t xml:space="preserve">Service Import</t>
@@ -529,7 +502,7 @@
   <dimension ref="A1:H1003"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+      <selection pane="topLeft" activeCell="H111" activeCellId="0" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1003,231 +976,111 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="8" t="n">
-        <v>2</v>
-      </c>
+      <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="8" t="n">
-        <f aca="false">E23-F23</f>
-        <v>2</v>
-      </c>
-      <c r="H23" s="9" t="n">
-        <f aca="false">(F23/(F23+G23))</f>
-        <v>0</v>
-      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="8" t="n">
-        <v>2</v>
-      </c>
+      <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="8" t="n">
-        <f aca="false">E24-F24</f>
-        <v>2</v>
-      </c>
-      <c r="H24" s="9" t="n">
-        <f aca="false">(F24/(F24+G24))</f>
-        <v>0</v>
-      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="8" t="n">
-        <v>2</v>
-      </c>
+      <c r="E25" s="8"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="8" t="n">
-        <f aca="false">E25-F25</f>
-        <v>2</v>
-      </c>
-      <c r="H25" s="9" t="n">
-        <f aca="false">(F25/(F25+G25))</f>
-        <v>0</v>
-      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="8" t="n">
-        <v>2</v>
-      </c>
+      <c r="E26" s="8"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="8" t="n">
-        <f aca="false">E26-F26</f>
-        <v>2</v>
-      </c>
-      <c r="H26" s="9" t="n">
-        <f aca="false">(F26/(F26+G26))</f>
-        <v>0</v>
-      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="8" t="n">
-        <v>2</v>
-      </c>
+      <c r="E27" s="8"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="8" t="n">
-        <f aca="false">E27-F27</f>
-        <v>2</v>
-      </c>
-      <c r="H27" s="9" t="n">
-        <f aca="false">(F27/(F27+G27))</f>
-        <v>0</v>
-      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="7"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="8" t="n">
-        <v>2</v>
-      </c>
+      <c r="E28" s="8"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="8" t="n">
-        <f aca="false">E28-F28</f>
-        <v>2</v>
-      </c>
-      <c r="H28" s="9" t="n">
-        <f aca="false">(F28/(F28+G28))</f>
-        <v>0</v>
-      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="8" t="n">
-        <v>2</v>
-      </c>
+      <c r="E29" s="8"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="8" t="n">
-        <f aca="false">E29-F29</f>
-        <v>2</v>
-      </c>
-      <c r="H29" s="9" t="n">
-        <f aca="false">(F29/(F29+G29))</f>
-        <v>0</v>
-      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="8" t="n">
-        <v>2</v>
-      </c>
+      <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="8" t="n">
-        <f aca="false">E30-F30</f>
-        <v>2</v>
-      </c>
-      <c r="H30" s="9" t="n">
-        <f aca="false">(F30/(F30+G30))</f>
-        <v>0</v>
-      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="8" t="n">
-        <v>2</v>
-      </c>
+      <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="8" t="n">
-        <f aca="false">E31-F31</f>
-        <v>2</v>
-      </c>
-      <c r="H31" s="9" t="n">
-        <f aca="false">(F31/(F31+G31))</f>
-        <v>0</v>
-      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="28.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
       <c r="C32" s="7"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="8" t="n">
-        <v>2</v>
-      </c>
+      <c r="E32" s="8"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="8" t="n">
-        <f aca="false">E32-F32</f>
-        <v>2</v>
-      </c>
-      <c r="H32" s="9" t="n">
-        <f aca="false">(F32/(F32+G32))</f>
-        <v>0</v>
-      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="8"/>
@@ -1251,7 +1104,7 @@
     <row r="34" customFormat="false" ht="27.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6"/>
       <c r="B34" s="8" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -1271,7 +1124,7 @@
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -1295,7 +1148,7 @@
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6"/>
       <c r="B36" s="8" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -1315,7 +1168,7 @@
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -1334,10 +1187,10 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -1361,7 +1214,7 @@
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6"/>
       <c r="B39" s="6" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -1381,7 +1234,7 @@
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="6"/>
       <c r="B40" s="8" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -1401,7 +1254,7 @@
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="6"/>
       <c r="B41" s="6" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -1425,7 +1278,7 @@
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="6"/>
       <c r="B42" s="6" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -1445,7 +1298,7 @@
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
       <c r="B43" s="6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -1465,7 +1318,7 @@
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="6"/>
       <c r="B44" s="6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -1489,7 +1342,7 @@
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6"/>
       <c r="B45" s="6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -1508,10 +1361,10 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -1535,7 +1388,7 @@
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="6"/>
       <c r="B47" s="6" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -1555,7 +1408,7 @@
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="6"/>
       <c r="B48" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -1575,7 +1428,7 @@
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -1599,7 +1452,7 @@
     <row r="50" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="6"/>
       <c r="B50" s="6" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -1619,7 +1472,7 @@
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="6"/>
       <c r="B51" s="6" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -1641,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -1661,7 +1514,7 @@
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="6"/>
       <c r="B53" s="8" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -1680,10 +1533,10 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -1703,7 +1556,7 @@
     <row r="55" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -1727,7 +1580,7 @@
     <row r="56" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="8"/>
       <c r="B56" s="8" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -1747,7 +1600,7 @@
     <row r="57" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="8"/>
       <c r="B57" s="6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -1771,7 +1624,7 @@
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="6"/>
       <c r="B58" s="8" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -1791,7 +1644,7 @@
     <row r="59" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="6"/>
       <c r="B59" s="6" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -1810,10 +1663,10 @@
     </row>
     <row r="60" customFormat="false" ht="28.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -1833,7 +1686,7 @@
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="8"/>
       <c r="B61" s="6" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -1857,7 +1710,7 @@
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="6"/>
       <c r="B62" s="6" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -1877,7 +1730,7 @@
     <row r="63" customFormat="false" ht="30.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="6"/>
       <c r="B63" s="8" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -1897,7 +1750,7 @@
     <row r="64" customFormat="false" ht="31.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="6"/>
       <c r="B64" s="6" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -1921,7 +1774,7 @@
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="6"/>
       <c r="B65" s="6" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -1941,7 +1794,7 @@
     <row r="66" customFormat="false" ht="26.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="6"/>
       <c r="B66" s="6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -1961,7 +1814,7 @@
     <row r="67" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="6"/>
       <c r="B67" s="6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -1985,7 +1838,7 @@
     <row r="68" customFormat="false" ht="28.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="6"/>
       <c r="B68" s="6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -2004,10 +1857,10 @@
     </row>
     <row r="69" customFormat="false" ht="40.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -2027,7 +1880,7 @@
     <row r="70" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="8"/>
       <c r="B70" s="6" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -2051,7 +1904,7 @@
     <row r="71" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="6"/>
       <c r="B71" s="6" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -2071,7 +1924,7 @@
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="6"/>
       <c r="B72" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -2091,7 +1944,7 @@
     <row r="73" customFormat="false" ht="40.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="6"/>
       <c r="B73" s="6" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -2115,7 +1968,7 @@
     <row r="74" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="6"/>
       <c r="B74" s="6" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -2135,7 +1988,7 @@
     <row r="75" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="6"/>
       <c r="B75" s="6" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -2154,10 +2007,10 @@
     </row>
     <row r="76" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -2177,7 +2030,7 @@
     <row r="77" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="6"/>
       <c r="B77" s="6" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
@@ -2197,7 +2050,7 @@
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="6"/>
       <c r="B78" s="6" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
@@ -2217,7 +2070,7 @@
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="6"/>
       <c r="B79" s="6" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -2236,10 +2089,10 @@
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -2259,7 +2112,7 @@
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="6"/>
       <c r="B81" s="8" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -2279,7 +2132,7 @@
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="6"/>
       <c r="B82" s="6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
@@ -2299,7 +2152,7 @@
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="6"/>
       <c r="B83" s="6" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -2318,10 +2171,10 @@
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -2341,7 +2194,7 @@
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="6"/>
       <c r="B85" s="8" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
@@ -2361,7 +2214,7 @@
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="6"/>
       <c r="B86" s="6" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
@@ -2381,7 +2234,7 @@
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="6"/>
       <c r="B87" s="6" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
@@ -2400,10 +2253,10 @@
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
@@ -2423,7 +2276,7 @@
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="6"/>
       <c r="B89" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
@@ -2443,7 +2296,7 @@
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="6"/>
       <c r="B90" s="6" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
@@ -2463,7 +2316,7 @@
     <row r="91" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="6"/>
       <c r="B91" s="6" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
@@ -2483,7 +2336,7 @@
     <row r="92" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="6"/>
       <c r="B92" s="6" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
@@ -2502,10 +2355,10 @@
     </row>
     <row r="93" customFormat="false" ht="27.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
@@ -2525,7 +2378,7 @@
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="6"/>
       <c r="B94" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
@@ -2545,7 +2398,7 @@
     <row r="95" customFormat="false" ht="30.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="6"/>
       <c r="B95" s="8" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
@@ -2565,7 +2418,7 @@
     <row r="96" customFormat="false" ht="26.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="6"/>
       <c r="B96" s="6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
@@ -2585,7 +2438,7 @@
     <row r="97" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="6"/>
       <c r="B97" s="6" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
@@ -2604,10 +2457,10 @@
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
@@ -2627,7 +2480,7 @@
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="6"/>
       <c r="B99" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
@@ -2647,7 +2500,7 @@
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="6"/>
       <c r="B100" s="8" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
@@ -2667,7 +2520,7 @@
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="6"/>
       <c r="B101" s="6" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
@@ -2687,7 +2540,7 @@
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="6"/>
       <c r="B102" s="6" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
@@ -2706,10 +2559,10 @@
     </row>
     <row r="103" customFormat="false" ht="27.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
@@ -2729,7 +2582,7 @@
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="6"/>
       <c r="B104" s="6" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
@@ -2747,45 +2600,39 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8" t="n">
-        <f aca="false">SUM(E106:E107)</f>
-        <v>4</v>
-      </c>
-      <c r="F105" s="8" t="n">
-        <f aca="false">SUM(F106:F107)</f>
-        <v>0</v>
-      </c>
-      <c r="G105" s="8" t="n">
-        <f aca="false">SUM(G106:G107)</f>
-        <v>4</v>
-      </c>
-      <c r="H105" s="9" t="n">
-        <f aca="false">(F105/(F105+G105))</f>
-        <v>0</v>
-      </c>
+      <c r="A105" s="0"/>
+      <c r="B105" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C105" s="0"/>
+      <c r="D105" s="0"/>
+      <c r="E105" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F105" s="0"/>
+      <c r="G105" s="0"/>
+      <c r="H105" s="0"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="6"/>
+      <c r="A106" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="B106" s="6" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
       <c r="E106" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F106" s="8"/>
+        <f aca="false">SUM(E107:E108)</f>
+        <v>4</v>
+      </c>
+      <c r="F106" s="8" t="n">
+        <f aca="false">SUM(F107:F108)</f>
+        <v>0</v>
+      </c>
       <c r="G106" s="8" t="n">
-        <f aca="false">E106-F106</f>
-        <v>2</v>
+        <f aca="false">SUM(G107:G108)</f>
+        <v>4</v>
       </c>
       <c r="H106" s="9" t="n">
         <f aca="false">(F106/(F106+G106))</f>
@@ -2795,7 +2642,7 @@
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="6"/>
       <c r="B107" s="6" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
@@ -2813,21 +2660,19 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="A108" s="6"/>
       <c r="B108" s="6" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
       <c r="E108" s="8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F108" s="8"/>
       <c r="G108" s="8" t="n">
         <f aca="false">E108-F108</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H108" s="9" t="n">
         <f aca="false">(F108/(F108+G108))</f>
@@ -2836,24 +2681,20 @@
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
       <c r="E109" s="8" t="n">
-        <f aca="false">SUM(E110:E111)</f>
-        <v>10</v>
-      </c>
-      <c r="F109" s="8" t="n">
-        <f aca="false">SUM(F110:F111)</f>
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F109" s="8"/>
       <c r="G109" s="8" t="n">
-        <f aca="false">SUM(G110:G111)</f>
-        <v>10</v>
+        <f aca="false">E109-F109</f>
+        <v>5</v>
       </c>
       <c r="H109" s="9" t="n">
         <f aca="false">(F109/(F109+G109))</f>
@@ -2861,19 +2702,25 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="7"/>
+      <c r="A110" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="B110" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F110" s="8"/>
+        <v>73</v>
+      </c>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8" t="n">
+        <f aca="false">SUM(E111:E112)</f>
+        <v>10</v>
+      </c>
+      <c r="F110" s="8" t="n">
+        <f aca="false">SUM(F111:F112)</f>
+        <v>0</v>
+      </c>
       <c r="G110" s="8" t="n">
-        <f aca="false">E110-F110</f>
-        <v>5</v>
+        <f aca="false">SUM(G111:G112)</f>
+        <v>10</v>
       </c>
       <c r="H110" s="9" t="n">
         <f aca="false">(F110/(F110+G110))</f>
@@ -2883,14 +2730,14 @@
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="7"/>
       <c r="B111" s="6" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
       <c r="E111" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="F111" s="7"/>
+      <c r="F111" s="8"/>
       <c r="G111" s="8" t="n">
         <f aca="false">E111-F111</f>
         <v>5</v>
@@ -2901,21 +2748,19 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>85</v>
+      <c r="A112" s="7"/>
+      <c r="B112" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F112" s="7"/>
       <c r="G112" s="8" t="n">
         <f aca="false">E112-F112</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H112" s="9" t="n">
         <f aca="false">(F112/(F112+G112))</f>
@@ -2923,14 +2768,26 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0"/>
-      <c r="B113" s="0"/>
-      <c r="C113" s="0"/>
-      <c r="D113" s="0"/>
-      <c r="E113" s="0"/>
-      <c r="F113" s="0"/>
-      <c r="G113" s="0"/>
-      <c r="H113" s="0"/>
+      <c r="A113" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F113" s="7"/>
+      <c r="G113" s="8" t="n">
+        <f aca="false">E113-F113</f>
+        <v>2</v>
+      </c>
+      <c r="H113" s="9" t="n">
+        <f aca="false">(F113/(F113+G113))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="0"/>
@@ -2959,7 +2816,7 @@
       <c r="D116" s="0"/>
       <c r="E116" s="8" t="n">
         <f aca="false">SUM(E4:E112)</f>
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="F116" s="8" t="n">
         <f aca="false">SUM(F4:F112)</f>
@@ -2967,11 +2824,11 @@
       </c>
       <c r="G116" s="8" t="n">
         <f aca="false">SUM(G4:G112)</f>
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="H116" s="9" t="n">
         <f aca="false">(F116/(F116+G116))</f>
-        <v>0.107692307692308</v>
+        <v>0.114130434782609</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2983,7 +2840,7 @@
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="10" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B118" s="2"/>
     </row>
@@ -2992,17 +2849,17 @@
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B120" s="2"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="11" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B121" s="12" t="n">
         <f aca="false">Feuil1!E116</f>
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3020,12 +2877,12 @@
       </c>
       <c r="B123" s="12" t="n">
         <f aca="false">Feuil1!G116</f>
-        <v>348</v>
+        <v>326</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B124" s="12" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
